--- a/biology/Médecine/Themis_aurea/Themis_aurea.xlsx
+++ b/biology/Médecine/Themis_aurea/Themis_aurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Themis aurea est un livre de Michael Maier imprimé en 1618. il a été écrit pour expliquer l'existence de l'ordre de la Rose-Croix et décrire ses lois : Maier parle d'un ordre de médecins, de leurs règles de leur symbolisme, de leur pratique. Après avoir présenté la légende de la déesse antique Thémis, il aborde la raison des lois de la fraternité de l'Ordre. 
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le texte comprend 20 chapitres. En voici quelques extraits d'après la traduction récente de l'œuvre en français :
 Chapitre I
@@ -564,9 +578,11 @@
           <t>Commentaires d'historiens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hereward Tilton dans son ouvrage historique « The quest for the phoenix: spiritual alchemy and Rosicrucianism » explique que Maier a dû écrire ses deux traités le « silentium » et la « Themis » pour répondre au silence qui suivit la fureur qui s'empara de certains après la parution des deux manifestes rosicruciens. Ces ouvrages auraient été surtout destinés aux amis de Maier et à ses protecteurs[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hereward Tilton dans son ouvrage historique « The quest for the phoenix: spiritual alchemy and Rosicrucianism » explique que Maier a dû écrire ses deux traités le « silentium » et la « Themis » pour répondre au silence qui suivit la fureur qui s'empara de certains après la parution des deux manifestes rosicruciens. Ces ouvrages auraient été surtout destinés aux amis de Maier et à ses protecteurs. 
 </t>
         </is>
       </c>
